--- a/clcore_ig/output/StructureDefinition-CoreMedicamentoCl.xlsx
+++ b/clcore_ig/output/StructureDefinition-CoreMedicamentoCl.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="408">
   <si>
     <t>Property</t>
   </si>
@@ -33,13 +33,13 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>MedicamentoCL</t>
+    <t>CoreMedicamentoCl</t>
   </si>
   <si>
     <t>Title</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-07T17:15:51-03:00</t>
+    <t>2024-09-26T12:51:50-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Chile (http://hl7chile.cl, chair@hl7chile.cl)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Este Perfil ha sido desarrollado para cubrir las necesidades de definición de un medicamento.</t>
+    <t>Descripción de un Medicamento</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -434,33 +434,57 @@
     <t>Medication.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Medication.extension:NombreComercial</t>
+  </si>
+  <si>
+    <t>NombreComercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/NombreComercial}
+</t>
+  </si>
+  <si>
+    <t>Nombre Comercial Fármaco</t>
+  </si>
+  <si>
+    <t>Nombre comercial del fármaco prescrito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Medication.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Medication.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -468,6 +492,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -481,44 +508,19 @@
 </t>
   </si>
   <si>
-    <t>Slices definidos para la identificación del fármaco, ya sea por Descripción o por concepto</t>
-  </si>
-  <si>
-    <t>Slice defindos en base a el elemento value, el cual debe ser especifico para cada uno de los slices definidos</t>
-  </si>
-  <si>
-    <t>Slice defindos en base a el elemento value. Sólo  se pueden usar los discriminadores definidos para los dos slices generados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Identificador de Medicamento</t>
+  </si>
+  <si>
+    <t>Business identifier for this medication.</t>
+  </si>
+  <si>
+    <t>The serial number could be included as an identifier.</t>
   </si>
   <si>
     <t>.id</t>
   </si>
   <si>
     <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Medication.identifier:DescripcionId</t>
-  </si>
-  <si>
-    <t>DescripcionId</t>
-  </si>
-  <si>
-    <t>Identificador de Descripción del fármaco</t>
-  </si>
-  <si>
-    <t>Este identificador se obtiene a travez del TFC por medio de un identificador de Descripción del fármaco</t>
-  </si>
-  <si>
-    <t>The serial number could be included as an identifier.</t>
-  </si>
-  <si>
-    <t>Medication.identifier:DescripcionId.id</t>
   </si>
   <si>
     <t>Medication.identifier.id</t>
@@ -540,35 +542,28 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Medication.identifier:DescripcionId.extension</t>
-  </si>
-  <si>
     <t>Medication.identifier.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Medication.identifier:DescripcionId.use</t>
-  </si>
-  <si>
     <t>Medication.identifier.use</t>
   </si>
   <si>
     <t>usual | official | temp | secondary | old</t>
   </si>
   <si>
-    <t>Para este caso se fuerza a que su uso sea "official"</t>
+    <t>The purpose of this identifier.</t>
   </si>
   <si>
     <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
@@ -577,9 +572,6 @@
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
-    <t>official</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -593,9 +585,6 @@
   </si>
   <si>
     <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Medication.identifier:DescripcionId.type</t>
   </si>
   <si>
     <t>Medication.identifier.type</t>
@@ -632,16 +621,13 @@
     <t>CX.5</t>
   </si>
   <si>
-    <t>Medication.identifier:DescripcionId.system</t>
-  </si>
-  <si>
     <t>Medication.identifier.system</t>
   </si>
   <si>
-    <t>El system debe tener el siguiente valor "http://minsal.cl/semantikos/description-id"</t>
-  </si>
-  <si>
-    <t>http://minsal.cl/semantikos/description-id DEBE ser usada para este slice. Estos EndPoint deberán estar disponibles pronto</t>
+    <t>Sistema de identificación</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>
@@ -650,9 +636,6 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://minsal.cl/semantikos/description-id</t>
-  </si>
-  <si>
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
@@ -665,13 +648,13 @@
     <t>CX.4 / EI-2-4</t>
   </si>
   <si>
-    <t>Medication.identifier:DescripcionId.value</t>
-  </si>
-  <si>
     <t>Medication.identifier.value</t>
   </si>
   <si>
-    <t>Valor del código</t>
+    <t>Valor del identificador</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
@@ -687,9 +670,6 @@
   </si>
   <si>
     <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>Medication.identifier:DescripcionId.period</t>
   </si>
   <si>
     <t>Medication.identifier.period</t>
@@ -714,9 +694,6 @@
     <t>CX.7 + CX.8</t>
   </si>
   <si>
-    <t>Medication.identifier:DescripcionId.assigner</t>
-  </si>
-  <si>
     <t>Medication.identifier.assigner</t>
   </si>
   <si>
@@ -742,55 +719,10 @@
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
-    <t>Medication.identifier:ConceptId</t>
-  </si>
-  <si>
-    <t>ConceptId</t>
-  </si>
-  <si>
-    <t>Este identificador se obtiene a travez del TFC por medio de un identificador de concepto</t>
-  </si>
-  <si>
-    <t>Este identificador se obtiene a travez del TFC por medio de un identificador del ConceptId del fármaco según SNOMED-CT</t>
-  </si>
-  <si>
-    <t>Medication.identifier:ConceptId.id</t>
-  </si>
-  <si>
-    <t>Medication.identifier:ConceptId.extension</t>
-  </si>
-  <si>
-    <t>Medication.identifier:ConceptId.use</t>
-  </si>
-  <si>
-    <t>Medication.identifier:ConceptId.type</t>
-  </si>
-  <si>
-    <t>Medication.identifier:ConceptId.system</t>
-  </si>
-  <si>
-    <t>El system debe tener el siguiente valor: "http://minsal.cl/semantikos/concept-id"</t>
-  </si>
-  <si>
-    <t>http://minsal.cl/semantikos/concept-id DEBE ser usada para este slice. Estos EndPoint deberán estar disponibles pronto</t>
-  </si>
-  <si>
-    <t>http://minsal.cl/semantikos/concept-id</t>
-  </si>
-  <si>
-    <t>Medication.identifier:ConceptId.value</t>
-  </si>
-  <si>
-    <t>Medication.identifier:ConceptId.period</t>
-  </si>
-  <si>
-    <t>Medication.identifier:ConceptId.assigner</t>
-  </si>
-  <si>
     <t>Medication.code</t>
   </si>
   <si>
-    <t>Codes that identify this medication</t>
+    <t>Código que identifica este medicamento</t>
   </si>
   <si>
     <t>A code (or set of codes) that specify this medication, or a textual description if no code is available. Usage note: This could be a standard medication code such as a code from RxNorm, SNOMED CT, IDMP etc. It could also be a national or local formulary code, optionally with translations to other code systems.</t>
@@ -800,9 +732,6 @@
   </si>
   <si>
     <t>example</t>
-  </si>
-  <si>
-    <t>A coded concept that defines the type of a medication.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
@@ -824,234 +753,145 @@
     <t>RXO-1.1-Requested Give Code.code / RXE-2.1-Give Code.code / RXD-2.1-Dispense/Give Code.code / RXG-4.1-Give Code.code /RXA-5.1-Administered Code.code / RXC-2.1 Component Code</t>
   </si>
   <si>
-    <t>Medication.code.id</t>
-  </si>
-  <si>
-    <t>Medication.code.extension</t>
-  </si>
-  <si>
-    <t>Medication.code.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
+    <t>Medication.status</t>
+  </si>
+  <si>
+    <t>active | inactive | entered-in-error</t>
+  </si>
+  <si>
+    <t>A code to indicate if the medication is in active use.</t>
+  </si>
+  <si>
+    <t>This status is intended to identify if the medication in a local system is in active use within a drug database or inventory.  For example, a pharmacy system may create a new drug file record for a compounded product "ABC Hospital Special Cream" with an active status.  At some point in the future, it may be determined that the drug record was created with an error and the status is changed to "entered in error".   This status is not intended to specify if a medication is part of a particular formulary.  It is possible that the drug record may be referenced by multiple formularies or catalogues and each of those entries would have a separate status.</t>
+  </si>
+  <si>
+    <t>A coded concept defining if the medication is in active use.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-status|4.0.1</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>Medication.manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreOrganizacionCl)
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>Medication.code.coding.id</t>
-  </si>
-  <si>
-    <t>Medication.code.coding.extension</t>
-  </si>
-  <si>
-    <t>Medication.code.coding.system</t>
-  </si>
-  <si>
-    <t>En principio el endPoint puede ser este, pero cada sistema localmente puede generar su TFC. "http://minsal.cl/semantikos/description-id"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si bien se dispondrá públicamente de un endPoint en el Servidor Semantikos del MINSAL, la BD de la TFC es libre distribución por lo que puede ser levantada Localmente </t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>Medication.code.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>Medication.code.coding.code</t>
-  </si>
-  <si>
-    <t>Código del farmaco desplegado por la TFC</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>Medication.code.coding.display</t>
-  </si>
-  <si>
-    <t>descripción del farmaco entregada por la TFC</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>Medication.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
+    <t>Laboratorio</t>
+  </si>
+  <si>
+    <t>Describes the details of the manufacturer of the medication product.  This is not intended to represent the distributor of a medication product.</t>
+  </si>
+  <si>
+    <t>no mapping</t>
+  </si>
+  <si>
+    <t>.player.scopingRole[typeCode=MANU].scoper</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>RXD-20-Substance Manufacturer Name / RXG-21-Substance Manufacturer Name / RXA-17-Substance Manufacturer Name</t>
+  </si>
+  <si>
+    <t>Medication.manufacturer.id</t>
+  </si>
+  <si>
+    <t>Medication.manufacturer.extension</t>
+  </si>
+  <si>
+    <t>Medication.manufacturer.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
 </t>
   </si>
   <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>Medication.code.text</t>
-  </si>
-  <si>
-    <t>Esto código define el fármaco que contiene el recurso. El código corresponde al determinado en la Termnología Frarmaceutica Chilena (TFC)</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>Medication.status</t>
-  </si>
-  <si>
-    <t>active | inactive | entered-in-error</t>
-  </si>
-  <si>
-    <t>A code to indicate if the medication is in active use.</t>
-  </si>
-  <si>
-    <t>This status is intended to identify if the medication in a local system is in active use within a drug database or inventory.  For example, a pharmacy system may create a new drug file record for a compounded product "ABC Hospital Special Cream" with an active status.  At some point in the future, it may be determined that the drug record was created with an error and the status is changed to "entered in error".   This status is not intended to specify if a medication is part of a particular formulary.  It is possible that the drug record may be referenced by multiple formularies or catalogues and each of those entries would have a separate status.</t>
-  </si>
-  <si>
-    <t>A coded concept defining if the medication is in active use.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-status|4.0.1</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>Medication.manufacturer</t>
-  </si>
-  <si>
-    <t>Manufacturer of the item</t>
-  </si>
-  <si>
-    <t>Describes the details of the manufacturer of the medication product.  This is not intended to represent the distributor of a medication product.</t>
-  </si>
-  <si>
-    <t>no mapping</t>
-  </si>
-  <si>
-    <t>.player.scopingRole[typeCode=MANU].scoper</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>RXD-20-Substance Manufacturer Name / RXG-21-Substance Manufacturer Name / RXA-17-Substance Manufacturer Name</t>
+    <t>Medication.manufacturer.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>Medication.manufacturer.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Medication.manufacturer.display</t>
+  </si>
+  <si>
+    <t>Nombre del laboratorio farmacéutico</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
   </si>
   <si>
     <t>Medication.form</t>
   </si>
   <si>
-    <t>powder | tablets | capsule +</t>
+    <t>Forma farmacéutica</t>
   </si>
   <si>
     <t>Describes the form of the item.  Powder; tablets; capsule.</t>
   </si>
   <si>
     <t>When Medication is referenced from MedicationRequest, this is the ordered form.  When Medication is referenced within MedicationDispense, this is the dispensed form.  When Medication is referenced within MedicationAdministration, this is administered form.</t>
-  </si>
-  <si>
-    <t>A coded concept defining the form of a medication.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-form-codes</t>
@@ -1091,7 +931,7 @@
 </t>
   </si>
   <si>
-    <t>Active or inactive ingredient</t>
+    <t>Componentes del medicamento</t>
   </si>
   <si>
     <t>Identifies a particular constituent of interest in the product.</t>
@@ -1133,25 +973,55 @@
 Reference(Substance|Medication)</t>
   </si>
   <si>
+    <t>Componente del fármaco</t>
+  </si>
+  <si>
+    <t>The actual ingredient - either a substance (simple ingredient) or another medication of a medication.</t>
+  </si>
+  <si>
+    <t>The ingredient may reference a substance (for example, amoxicillin) or another medication (for example in the case of a compounded product, Glaxal Base).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>.player</t>
+  </si>
+  <si>
+    <t>RXC-2-Component Code  if medication: RXO-1-Requested Give Code / RXE-2-Give Code / RXD-2-Dispense/Give Code / RXG-4-Give Code / RXA-5-Administered Code</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.item[x]:itemCodeableConcept</t>
+  </si>
+  <si>
+    <t>itemCodeableConcept</t>
+  </si>
+  <si>
     <t>The actual ingredient or content</t>
   </si>
   <si>
-    <t>The actual ingredient - either a substance (simple ingredient) or another medication of a medication.</t>
-  </si>
-  <si>
-    <t>The ingredient may reference a substance (for example, amoxicillin) or another medication (for example in the case of a compounded product, Glaxal Base).</t>
-  </si>
-  <si>
-    <t>.player</t>
-  </si>
-  <si>
-    <t>RXC-2-Component Code  if medication: RXO-1-Requested Give Code / RXE-2-Give Code / RXD-2-Dispense/Give Code / RXG-4-Give Code / RXA-5-Administered Code</t>
+    <t>Medication.ingredient.item[x]:itemReference</t>
+  </si>
+  <si>
+    <t>itemReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Substance|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreMedicamentoCl)
+</t>
   </si>
   <si>
     <t>Medication.ingredient.isActive</t>
   </si>
   <si>
-    <t>Active ingredient indicator</t>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Determinación si el componente es componente activo o no</t>
   </si>
   <si>
     <t>Indication of whether this ingredient affects the therapeutic action of the drug.</t>
@@ -1167,7 +1037,7 @@
     <t>Medication.ingredient.strength</t>
   </si>
   <si>
-    <t>Quantity of ingredient present</t>
+    <t>Potencia del componente</t>
   </si>
   <si>
     <t>Specifies how many (or how much) of the items there are in this Medication.  For example, 250 mg per tablet.  This is expressed as a ratio where the numerator is 250mg and the denominator is 1 tablet.</t>
@@ -1177,6 +1047,201 @@
   </si>
   <si>
     <t>RXC-3-Component Amount &amp; RXC-4-Component Units  if medication: RXO-2-Requested Give Amount - Minimum &amp; RXO-4-Requested Give Units / RXO-3-Requested Give Amount - Maximum &amp; RXO-4-Requested Give Units / RXO-11-Requested Dispense Amount &amp; RXO-12-Requested Dispense Units / RXE-3-Give Amount - Minimum &amp; RXE-5-Give Units / RXE-4-Give Amount - Maximum &amp; RXE-5-Give Units / RXE-10-Dispense Amount &amp; RXE-10-Dispense Units</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.strength.id</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.strength.extension</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.strength.numerator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>Valor del Numerador</t>
+  </si>
+  <si>
+    <t>The value of the numerator.</t>
+  </si>
+  <si>
+    <t>Ratio.numerator</t>
+  </si>
+  <si>
+    <t>.numerator</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.strength.numerator.id</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.strength.numerator.extension</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.strength.numerator.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.strength.numerator.comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.strength.numerator.unit</t>
+  </si>
+  <si>
+    <t>Unidad del Numerador</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>El valor de la unidad del numerador debe ser el mismo que el del denominador</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.strength.numerator.system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.strength.numerator.code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.strength.denominator</t>
+  </si>
+  <si>
+    <t>Valor del Denominador</t>
+  </si>
+  <si>
+    <t>The value of the denominator.</t>
+  </si>
+  <si>
+    <t>Ratio.denominator</t>
+  </si>
+  <si>
+    <t>.denominator</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.strength.denominator.id</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.strength.denominator.extension</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.strength.denominator.value</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.strength.denominator.comparator</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.strength.denominator.unit</t>
+  </si>
+  <si>
+    <t>Unidad del Denominador</t>
+  </si>
+  <si>
+    <t>El valor de la unidad del denominador debe ser el mismo que el del numerador</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.strength.denominator.system</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.strength.denominator.code</t>
   </si>
   <si>
     <t>Medication.batch</t>
@@ -1550,7 +1615,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN58"/>
+  <dimension ref="A1:AN64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1559,9 +1624,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.37109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.21875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.16015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="51.34765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="51.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.61328125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -1569,7 +1634,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="30.390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.4140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1584,7 +1649,7 @@
     <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="48.828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.16015625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
@@ -2525,7 +2590,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2544,17 +2609,15 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>78</v>
@@ -2591,16 +2654,14 @@
         <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>138</v>
@@ -2621,7 +2682,7 @@
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>78</v>
@@ -2635,43 +2696,41 @@
         <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>78</v>
       </c>
@@ -2719,7 +2778,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2728,7 +2787,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>139</v>
@@ -2737,7 +2796,7 @@
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>78</v>
@@ -2748,14 +2807,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2768,24 +2827,26 @@
         <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P11" t="s" s="2">
         <v>78</v>
       </c>
@@ -2821,17 +2882,19 @@
         <v>78</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AC11" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2843,16 +2906,16 @@
         <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>78</v>
@@ -2860,14 +2923,12 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>78</v>
       </c>
@@ -2876,7 +2937,7 @@
         <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>89</v>
@@ -2888,16 +2949,16 @@
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2947,7 +3008,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -2965,10 +3026,10 @@
         <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>78</v>
@@ -2976,7 +3037,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>160</v>
@@ -3091,11 +3152,11 @@
         <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3114,16 +3175,16 @@
         <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3161,19 +3222,19 @@
         <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AC14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AC14" t="s" s="2">
+      <c r="AD14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3202,10 +3263,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3219,7 +3280,7 @@
         <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>89</v>
@@ -3231,16 +3292,16 @@
         <v>108</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>78</v>
@@ -3250,46 +3311,46 @@
         <v>78</v>
       </c>
       <c r="S15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Z15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="T15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3307,7 +3368,7 @@
         <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3318,10 +3379,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3344,19 +3405,19 @@
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="O16" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -3381,13 +3442,13 @@
         <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>78</v>
@@ -3405,7 +3466,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3423,21 +3484,21 @@
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3445,13 +3506,13 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>78</v>
@@ -3463,16 +3524,16 @@
         <v>102</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -3482,10 +3543,10 @@
         <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>78</v>
@@ -3521,7 +3582,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3539,21 +3600,21 @@
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3567,7 +3628,7 @@
         <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>78</v>
@@ -3579,13 +3640,13 @@
         <v>161</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3599,7 +3660,7 @@
         <v>78</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>78</v>
@@ -3635,7 +3696,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3653,21 +3714,21 @@
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3690,13 +3751,13 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3747,7 +3808,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3765,21 +3826,21 @@
         <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3802,16 +3863,16 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3861,7 +3922,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3879,25 +3940,23 @@
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>78</v>
       </c>
@@ -3918,16 +3977,16 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>158</v>
+        <v>227</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3953,13 +4012,11 @@
         <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>78</v>
+        <v>229</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>78</v>
@@ -3977,13 +4034,13 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>145</v>
+        <v>224</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>78</v>
@@ -3992,24 +4049,24 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>153</v>
+        <v>232</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4026,21 +4083,23 @@
         <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>162</v>
+        <v>235</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4065,13 +4124,13 @@
         <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>78</v>
+        <v>239</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>78</v>
@@ -4089,7 +4148,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4101,13 +4160,13 @@
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>165</v>
+        <v>240</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>78</v>
@@ -4118,43 +4177,41 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>167</v>
+        <v>241</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>135</v>
+        <v>243</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4191,51 +4248,51 @@
         <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>171</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>165</v>
+        <v>246</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>78</v>
+        <v>247</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>78</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4252,26 +4309,22 @@
         <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
       </c>
@@ -4280,7 +4333,7 @@
         <v>78</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>78</v>
@@ -4295,13 +4348,13 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>78</v>
@@ -4319,7 +4372,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4331,38 +4384,38 @@
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -4371,23 +4424,21 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4411,63 +4462,63 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>193</v>
+        <v>78</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>195</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4475,13 +4526,13 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>78</v>
@@ -4490,20 +4541,18 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4512,10 +4561,10 @@
         <v>78</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>78</v>
@@ -4551,7 +4600,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4560,7 +4609,7 @@
         <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>78</v>
+        <v>256</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>100</v>
@@ -4569,21 +4618,21 @@
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>205</v>
+        <v>131</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4606,16 +4655,16 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4629,7 +4678,7 @@
         <v>78</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>78</v>
@@ -4641,13 +4690,13 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>78</v>
+        <v>261</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -4665,7 +4714,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>212</v>
+        <v>263</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4683,21 +4732,21 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>214</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4720,15 +4769,17 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -4777,7 +4828,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4795,21 +4846,21 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4823,7 +4874,7 @@
         <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>78</v>
@@ -4832,16 +4883,16 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4891,7 +4942,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4909,21 +4960,21 @@
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4943,19 +4994,19 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4981,13 +5032,11 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
@@ -5005,7 +5054,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5020,24 +5069,24 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>256</v>
+        <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>257</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5057,16 +5106,16 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>161</v>
+        <v>284</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>162</v>
+        <v>285</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>163</v>
+        <v>286</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5117,7 +5166,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>164</v>
+        <v>283</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5129,13 +5178,13 @@
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>165</v>
+        <v>287</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -5146,14 +5195,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5163,7 +5212,7 @@
         <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>78</v>
@@ -5172,16 +5221,16 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>134</v>
+        <v>289</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>168</v>
+        <v>291</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>137</v>
+        <v>292</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5219,19 +5268,19 @@
         <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>171</v>
+        <v>288</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5243,13 +5292,13 @@
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>165</v>
+        <v>293</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5260,10 +5309,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5274,7 +5323,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5283,23 +5332,19 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>261</v>
+        <v>161</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>262</v>
+        <v>162</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>78</v>
       </c>
@@ -5347,50 +5392,50 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>266</v>
+        <v>164</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>267</v>
+        <v>165</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>268</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -5402,15 +5447,17 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5459,19 +5506,19 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
@@ -5488,14 +5535,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>133</v>
+        <v>297</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5508,24 +5555,26 @@
         <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>135</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>168</v>
+        <v>299</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5561,19 +5610,19 @@
         <v>78</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>171</v>
+        <v>300</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5591,7 +5640,7 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5602,10 +5651,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5613,34 +5662,32 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>102</v>
+        <v>302</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -5677,22 +5724,20 @@
         <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>78</v>
+        <v>307</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>88</v>
@@ -5704,26 +5749,28 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>278</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>78</v>
       </c>
@@ -5741,21 +5788,21 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
@@ -5779,13 +5826,11 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>78</v>
+        <v>229</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
@@ -5803,10 +5848,10 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>88</v>
@@ -5818,26 +5863,28 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>285</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="D38" t="s" s="2">
         <v>78</v>
       </c>
@@ -5855,20 +5902,20 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>108</v>
+        <v>315</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -5917,10 +5964,10 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>88</v>
@@ -5932,24 +5979,24 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>291</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5963,26 +6010,26 @@
         <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>161</v>
+        <v>317</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6031,7 +6078,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6049,21 +6096,21 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>297</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6077,29 +6124,25 @@
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
       </c>
@@ -6147,7 +6190,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6162,24 +6205,24 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>306</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6199,23 +6242,19 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>161</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>308</v>
+        <v>162</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>78</v>
       </c>
@@ -6263,7 +6302,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>312</v>
+        <v>164</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6275,59 +6314,59 @@
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>313</v>
+        <v>165</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>314</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>316</v>
+        <v>167</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>317</v>
+        <v>168</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>318</v>
+        <v>150</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6353,49 +6392,49 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>319</v>
+        <v>78</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>315</v>
+        <v>170</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>321</v>
+        <v>165</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6406,10 +6445,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6423,7 +6462,7 @@
         <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>78</v>
@@ -6432,13 +6471,13 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>225</v>
+        <v>330</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6489,7 +6528,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6504,24 +6543,24 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>325</v>
+        <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>327</v>
+        <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>328</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6544,17 +6583,15 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>330</v>
+        <v>162</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -6579,13 +6616,13 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>333</v>
+        <v>78</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>334</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -6603,7 +6640,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>329</v>
+        <v>164</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6615,38 +6652,38 @@
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>335</v>
+        <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>336</v>
+        <v>165</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>337</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -6655,18 +6692,20 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>339</v>
+        <v>133</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>340</v>
+        <v>167</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -6703,37 +6742,37 @@
         <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>338</v>
+        <v>170</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>342</v>
+        <v>165</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -6744,10 +6783,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6758,7 +6797,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -6767,21 +6806,23 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
@@ -6829,13 +6870,13 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
@@ -6847,21 +6888,21 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>78</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6878,26 +6919,30 @@
         <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>162</v>
+        <v>346</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>163</v>
+        <v>347</v>
       </c>
       <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="R47" t="s" s="2">
         <v>78</v>
       </c>
@@ -6917,13 +6962,13 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>78</v>
+        <v>350</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>78</v>
+        <v>351</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
@@ -6941,7 +6986,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>164</v>
+        <v>352</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -6953,38 +6998,38 @@
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>165</v>
+        <v>353</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>78</v>
+        <v>354</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -6993,21 +7038,23 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>135</v>
+        <v>356</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>168</v>
+        <v>357</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7055,74 +7102,72 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>171</v>
+        <v>360</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>165</v>
+        <v>361</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>352</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>143</v>
+        <v>366</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7171,39 +7216,39 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>78</v>
+        <v>368</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>131</v>
+        <v>369</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7211,7 +7256,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>88</v>
@@ -7223,20 +7268,22 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>357</v>
+        <v>108</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="O50" t="s" s="2">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7285,10 +7332,10 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>88</v>
@@ -7300,10 +7347,10 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7314,10 +7361,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7331,27 +7378,25 @@
         <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>366</v>
-      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7399,7 +7444,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7417,7 +7462,7 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7428,10 +7473,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7454,13 +7499,13 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>339</v>
+        <v>161</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>369</v>
+        <v>162</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>370</v>
+        <v>163</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7511,7 +7556,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>368</v>
+        <v>164</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7523,38 +7568,38 @@
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>371</v>
+        <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>342</v>
+        <v>165</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>372</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -7566,15 +7611,17 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>344</v>
+        <v>133</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>374</v>
+        <v>167</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -7611,37 +7658,37 @@
         <v>78</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>373</v>
+        <v>170</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>325</v>
+        <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>376</v>
+        <v>165</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -7652,10 +7699,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7675,19 +7722,23 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>161</v>
+        <v>338</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>162</v>
+        <v>378</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
       </c>
@@ -7735,7 +7786,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>164</v>
+        <v>342</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -7747,65 +7798,67 @@
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>165</v>
+        <v>343</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>78</v>
+        <v>344</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>135</v>
+        <v>346</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="R55" t="s" s="2">
         <v>78</v>
       </c>
@@ -7825,13 +7878,13 @@
         <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>78</v>
+        <v>350</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>78</v>
+        <v>351</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>78</v>
@@ -7849,74 +7902,74 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>171</v>
+        <v>352</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>165</v>
+        <v>353</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>78</v>
+        <v>354</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>352</v>
+        <v>78</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>137</v>
+        <v>388</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>143</v>
+        <v>359</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -7965,39 +8018,39 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>131</v>
+        <v>361</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8017,19 +8070,21 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8077,7 +8132,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8086,30 +8141,30 @@
         <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>78</v>
+        <v>368</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>325</v>
+        <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>152</v>
+        <v>369</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>383</v>
+        <v>362</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8129,19 +8184,23 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>385</v>
+        <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
       </c>
@@ -8189,7 +8248,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8204,20 +8263,698 @@
         <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>325</v>
+        <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>389</v>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN58">
+  <autoFilter ref="A1:AN64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8227,7 +8964,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI57">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
